--- a/Benchmarks-results/Prometheus/całka NOWE/całka 1 GPU.xlsx
+++ b/Benchmarks-results/Prometheus/całka NOWE/całka 1 GPU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>1 GPU LOCAL SIZE 1024</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>GWS 16777216</t>
+  </si>
+  <si>
+    <t>1 GPU</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:CK87"/>
+  <dimension ref="B2:CK87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B25" sqref="B25:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1859,7 +1868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="2:19">
       <c r="C17">
         <f t="shared" si="1"/>
         <v>4194304</v>
@@ -1900,7 +1909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="2:19">
       <c r="C18">
         <f t="shared" si="1"/>
         <v>8388608</v>
@@ -1941,7 +1950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="2:19">
       <c r="C19">
         <f t="shared" si="1"/>
         <v>16777216</v>
@@ -1970,7 +1979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="2:19">
       <c r="C20">
         <f>2*C19</f>
         <v>33554432</v>
@@ -1999,7 +2008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="2:19">
       <c r="J21" s="2">
         <v>0.55954861111111109</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="2:19">
       <c r="J22" s="2">
         <v>0.55956018518518513</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="2:19">
       <c r="J23" s="2">
         <v>0.55957175925925928</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="2:19">
       <c r="J24" s="2">
         <v>0.55958333333333332</v>
       </c>
@@ -2055,7 +2064,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="2:19">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="2">
         <v>0.55959490740740747</v>
       </c>
@@ -2069,7 +2081,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="3:19">
+    <row r="26" spans="2:19">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
       <c r="J26" s="2">
         <v>0.55960648148148151</v>
       </c>
@@ -2083,7 +2101,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:19">
+    <row r="27" spans="2:19">
+      <c r="B27">
+        <v>1024</v>
+      </c>
+      <c r="C27">
+        <f>MIN(M5:M30)</f>
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <f>MAX(M5:M30)</f>
+        <v>45</v>
+      </c>
       <c r="J27" s="2">
         <v>0.55961805555555555</v>
       </c>
@@ -2097,7 +2126,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="3:19">
+    <row r="28" spans="2:19">
+      <c r="B28">
+        <f>2*B27</f>
+        <v>2048</v>
+      </c>
+      <c r="C28">
+        <f>MIN(S5:S18)</f>
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <f>MAX(S5:S18)</f>
+        <v>42</v>
+      </c>
       <c r="J28" s="2">
         <v>0.55962962962962959</v>
       </c>
@@ -2111,7 +2152,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="3:19">
+    <row r="29" spans="2:19">
+      <c r="B29">
+        <f t="shared" ref="B29:B41" si="2">2*B28</f>
+        <v>4096</v>
+      </c>
+      <c r="C29">
+        <f>MIN(X5:X12)</f>
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <f>MAX(X5:X12)</f>
+        <v>41</v>
+      </c>
       <c r="J29" s="2">
         <v>0.55964120370370374</v>
       </c>
@@ -2125,7 +2178,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:19">
+    <row r="30" spans="2:19">
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="C30">
+        <f>MIN(AC5:AC8)</f>
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <f>MAX(AC5:AC8)</f>
+        <v>41</v>
+      </c>
       <c r="J30" s="2">
         <v>0.55965277777777778</v>
       </c>
@@ -2139,52 +2204,114 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="10:13">
+    <row r="31" spans="2:19">
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="C31">
+        <f>MIN(AH5:AH8)</f>
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <f>MAX(AH5:AH8)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33">
+        <f>2*B32</f>
+        <v>65536</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="35" spans="10:13">
+    <row r="34" spans="2:13">
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="10:13">
+    <row r="36" spans="2:13">
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>524288</v>
+      </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:13">
+    <row r="37" spans="2:13">
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="10:13">
+    <row r="38" spans="2:13">
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>2097152</v>
+      </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="10:13">
+    <row r="39" spans="2:13">
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>4194304</v>
+      </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:13">
+    <row r="40" spans="2:13">
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>8388608</v>
+      </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="10:13">
+    <row r="41" spans="2:13">
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:13">
+    <row r="42" spans="2:13">
+      <c r="B42">
+        <f>2*B41</f>
+        <v>33554432</v>
+      </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="10:13">
+    <row r="43" spans="2:13">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:13">
+    <row r="44" spans="2:13">
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="10:13">
+    <row r="45" spans="2:13">
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="10:13">
+    <row r="46" spans="2:13">
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="10:13">
+    <row r="47" spans="2:13">
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="10:13">
+    <row r="48" spans="2:13">
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="10:10">
